--- a/Fulton Hogan Vic Services - Geelong/35404/ITP-003 - Construction of Structural Concrete.xlsx
+++ b/Fulton Hogan Vic Services - Geelong/35404/ITP-003 - Construction of Structural Concrete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Barwon SW Region\19 External Works\2 - Projects\7ABE0260 - Spout Creek Bridge Replacement GOR\8 - Quality\1.2 - ITPs, Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D42508-C7B4-4494-879E-264D1FD6712D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D20D6E8-B393-4698-8BA6-DFCDDF5A7CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,9 +311,6 @@
     <t>Jarrod Rodrigues</t>
   </si>
   <si>
-    <t>Ensure any underground service locations have been identified and marker on-site. Ensure any required approvals/permits have been received by service authorities prior to commencing works.</t>
-  </si>
-  <si>
     <t>Design Drawings &amp; Survey Date</t>
   </si>
   <si>
@@ -559,6 +556,11 @@
   </si>
   <si>
     <t>ITP Signed, Submitted Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All concrete shall be sampled and tested in accordance with AS 1012.
+The minimum number of test samples shall be in accordance with Table 610.161 in the VicRoads Standard.
+</t>
   </si>
 </sst>
 </file>
@@ -1634,15 +1636,144 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1657,135 +1788,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2393,7 +2395,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2419,39 +2421,39 @@
       <c r="A2" s="9"/>
       <c r="B2" s="40"/>
       <c r="C2" s="42"/>
-      <c r="D2" s="158" t="s">
+      <c r="D2" s="156" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="155" t="s">
-        <v>117</v>
-      </c>
-      <c r="M2" s="156"/>
-      <c r="N2" s="157"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
     </row>
     <row r="3" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41"/>
       <c r="B3" s="98"/>
       <c r="C3" s="43"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
       <c r="L3" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="165"/>
-      <c r="N3" s="166"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38"/>
@@ -2470,10 +2472,10 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="105" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="170"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="121" t="s">
         <v>72</v>
       </c>
@@ -2498,18 +2500,18 @@
       <c r="N5" s="104"/>
     </row>
     <row r="6" spans="1:14" s="105" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="173" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="160" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="161"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="151" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="152"/>
+      <c r="E6" s="158" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="159"/>
       <c r="G6" s="133" t="s">
         <v>11</v>
       </c>
@@ -2519,31 +2521,31 @@
       <c r="I6" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="167" t="s">
+      <c r="J6" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="168"/>
+      <c r="K6" s="166"/>
       <c r="L6" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="167" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" s="168"/>
+      <c r="M6" s="165" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="166"/>
     </row>
     <row r="7" spans="1:14" s="105" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="172"/>
+      <c r="B7" s="149"/>
       <c r="C7" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="162" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="163"/>
+      <c r="F7" s="161"/>
       <c r="I7" s="106"/>
       <c r="K7" s="107"/>
       <c r="N7" s="107"/>
@@ -2553,10 +2555,10 @@
       <c r="B8" s="119"/>
       <c r="C8" s="109"/>
       <c r="D8" s="108"/>
-      <c r="E8" s="162" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="164"/>
+      <c r="E8" s="160" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="162"/>
       <c r="G8" s="105" t="s">
         <v>1</v>
       </c>
@@ -2577,10 +2579,10 @@
       <c r="B9" s="111"/>
       <c r="C9" s="112"/>
       <c r="D9" s="112"/>
-      <c r="E9" s="135" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="136"/>
+      <c r="E9" s="179" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="180"/>
       <c r="G9" s="113" t="s">
         <v>3</v>
       </c>
@@ -2622,17 +2624,17 @@
       <c r="A11" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="143">
+      <c r="B11" s="150">
         <v>1</v>
       </c>
-      <c r="C11" s="143"/>
+      <c r="C11" s="150"/>
       <c r="D11" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
       <c r="I11" s="44"/>
       <c r="J11" s="93" t="s">
         <v>52</v>
@@ -2662,36 +2664,36 @@
       <c r="A13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="138"/>
-      <c r="D13" s="151" t="s">
+      <c r="C13" s="181"/>
+      <c r="D13" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="147" t="s">
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="171" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="149" t="s">
+      <c r="K13" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="149"/>
-      <c r="M13" s="149"/>
-      <c r="N13" s="150"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="174"/>
     </row>
     <row r="14" spans="1:14" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="139"/>
-      <c r="C14" s="140"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="183"/>
       <c r="D14" s="60" t="s">
         <v>6</v>
       </c>
@@ -2707,7 +2709,7 @@
       <c r="H14" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="148"/>
+      <c r="I14" s="172"/>
       <c r="J14" s="64" t="s">
         <v>51</v>
       </c>
@@ -2728,10 +2730,10 @@
       <c r="A15" s="90">
         <v>1</v>
       </c>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="154"/>
+      <c r="C15" s="168"/>
       <c r="D15" s="80"/>
       <c r="E15" s="80"/>
       <c r="F15" s="79"/>
@@ -2748,10 +2750,10 @@
       <c r="A16" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="185"/>
       <c r="D16" s="117" t="s">
         <v>62</v>
       </c>
@@ -2786,10 +2788,10 @@
       <c r="A17" s="16">
         <v>1.2</v>
       </c>
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="146"/>
+      <c r="C17" s="178"/>
       <c r="D17" s="118" t="s">
         <v>62</v>
       </c>
@@ -2824,30 +2826,30 @@
       <c r="A18" s="16">
         <v>1.3</v>
       </c>
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="146"/>
+      <c r="C18" s="178"/>
       <c r="D18" s="118" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="74" t="s">
+      <c r="H18" s="75" t="s">
         <v>106</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>107</v>
       </c>
       <c r="I18" s="76" t="s">
         <v>28</v>
       </c>
       <c r="J18" s="77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18" s="126"/>
       <c r="L18" s="94"/>
@@ -2860,30 +2862,30 @@
       <c r="A19" s="16">
         <v>1.4</v>
       </c>
-      <c r="B19" s="144" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="146"/>
+      <c r="B19" s="169" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="178"/>
       <c r="D19" s="118" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="73" t="s">
+      <c r="G19" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="75" t="s">
         <v>123</v>
-      </c>
-      <c r="G19" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>124</v>
       </c>
       <c r="I19" s="76" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" s="126"/>
       <c r="L19" s="94"/>
@@ -2896,10 +2898,10 @@
       <c r="A20" s="90">
         <v>2</v>
       </c>
-      <c r="B20" s="153" t="s">
+      <c r="B20" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="154"/>
+      <c r="C20" s="168"/>
       <c r="D20" s="86"/>
       <c r="E20" s="86"/>
       <c r="F20" s="82"/>
@@ -2916,18 +2918,18 @@
       <c r="A21" s="17">
         <v>2.1</v>
       </c>
-      <c r="B21" s="144" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="145"/>
+      <c r="B21" s="169" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="170"/>
       <c r="D21" s="118" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="130" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="74" t="s">
         <v>64</v>
@@ -2939,7 +2941,7 @@
         <v>34</v>
       </c>
       <c r="J21" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="126"/>
       <c r="L21" s="88"/>
@@ -2952,18 +2954,18 @@
       <c r="A22" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B22" s="144" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="145"/>
+      <c r="B22" s="169" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="170"/>
       <c r="D22" s="118" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="128" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="74" t="s">
         <v>64</v>
@@ -2975,7 +2977,7 @@
         <v>28</v>
       </c>
       <c r="J22" s="77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K22" s="78" t="s">
         <v>55</v>
@@ -2990,30 +2992,30 @@
       <c r="A23" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B23" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="145"/>
+      <c r="B23" s="169" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="170"/>
       <c r="D23" s="118" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="74" t="s">
         <v>64</v>
       </c>
       <c r="H23" s="75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J23" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K23" s="126"/>
       <c r="L23" s="88"/>
@@ -3026,18 +3028,18 @@
       <c r="A24" s="17">
         <v>2.4</v>
       </c>
-      <c r="B24" s="144" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="145"/>
+      <c r="B24" s="169" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="170"/>
       <c r="D24" s="118" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="127" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" s="74" t="s">
         <v>64</v>
@@ -3049,7 +3051,7 @@
         <v>28</v>
       </c>
       <c r="J24" s="77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="126"/>
       <c r="L24" s="88"/>
@@ -3062,30 +3064,30 @@
       <c r="A25" s="17">
         <v>2.5</v>
       </c>
-      <c r="B25" s="144" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="145"/>
+      <c r="B25" s="169" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="170"/>
       <c r="D25" s="118" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="127" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25" s="74" t="s">
         <v>64</v>
       </c>
       <c r="H25" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>34</v>
       </c>
       <c r="J25" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K25" s="88" t="s">
         <v>55</v>
@@ -3100,18 +3102,18 @@
       <c r="A26" s="17">
         <v>2.6</v>
       </c>
-      <c r="B26" s="144" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="145"/>
+      <c r="B26" s="169" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="170"/>
       <c r="D26" s="118" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="127" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26" s="74" t="s">
         <v>64</v>
@@ -3123,7 +3125,7 @@
         <v>34</v>
       </c>
       <c r="J26" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K26" s="88" t="s">
         <v>55</v>
@@ -3138,18 +3140,18 @@
       <c r="A27" s="17">
         <v>2.7</v>
       </c>
-      <c r="B27" s="144" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="145"/>
+      <c r="B27" s="169" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="170"/>
       <c r="D27" s="118" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="128" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G27" s="74" t="s">
         <v>64</v>
@@ -3161,7 +3163,7 @@
         <v>34</v>
       </c>
       <c r="J27" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K27" s="88" t="s">
         <v>55</v>
@@ -3176,18 +3178,18 @@
       <c r="A28" s="17">
         <v>2.8</v>
       </c>
-      <c r="B28" s="144" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="145"/>
+      <c r="B28" s="169" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="170"/>
       <c r="D28" s="118" t="s">
         <v>66</v>
       </c>
       <c r="E28" s="131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G28" s="74" t="s">
         <v>64</v>
@@ -3199,7 +3201,7 @@
         <v>34</v>
       </c>
       <c r="J28" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K28" s="88" t="s">
         <v>55</v>
@@ -3214,10 +3216,10 @@
       <c r="A29" s="90">
         <v>3</v>
       </c>
-      <c r="B29" s="153" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="154"/>
+      <c r="B29" s="167" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="168"/>
       <c r="D29" s="86"/>
       <c r="E29" s="86"/>
       <c r="F29" s="82"/>
@@ -3230,22 +3232,22 @@
       <c r="M29" s="79"/>
       <c r="N29" s="97"/>
     </row>
-    <row r="30" spans="1:14" s="87" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" s="87" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>3.1</v>
       </c>
-      <c r="B30" s="144" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="145"/>
+      <c r="B30" s="169" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="170"/>
       <c r="D30" s="118" t="s">
         <v>62</v>
       </c>
       <c r="E30" s="132" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F30" s="73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G30" s="74" t="s">
         <v>36</v>
@@ -3257,7 +3259,7 @@
         <v>34</v>
       </c>
       <c r="J30" s="125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K30" s="88" t="s">
         <v>55</v>
@@ -3288,21 +3290,21 @@
     </row>
     <row r="32" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
-      <c r="B32" s="176" t="s">
+      <c r="B32" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="176"/>
-      <c r="N32" s="177"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="137"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
@@ -3361,10 +3363,10 @@
       <c r="N35" s="36"/>
     </row>
     <row r="36" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="175"/>
+      <c r="B36" s="135"/>
       <c r="C36" s="68"/>
       <c r="D36" s="69"/>
       <c r="E36" s="68"/>
@@ -3385,26 +3387,26 @@
       <c r="B37" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="182" t="s">
+      <c r="C37" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="182"/>
-      <c r="E37" s="183"/>
+      <c r="D37" s="142"/>
+      <c r="E37" s="143"/>
       <c r="F37" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="180" t="s">
+      <c r="G37" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180" t="s">
+      <c r="H37" s="140"/>
+      <c r="I37" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="180"/>
-      <c r="K37" s="180"/>
-      <c r="L37" s="180"/>
-      <c r="M37" s="180"/>
-      <c r="N37" s="181"/>
+      <c r="J37" s="140"/>
+      <c r="K37" s="140"/>
+      <c r="L37" s="140"/>
+      <c r="M37" s="140"/>
+      <c r="N37" s="141"/>
     </row>
     <row r="38" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="48" t="s">
@@ -3413,26 +3415,26 @@
       <c r="B38" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="184" t="s">
+      <c r="C38" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="184"/>
-      <c r="E38" s="185"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="145"/>
       <c r="F38" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="180" t="s">
+      <c r="G38" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="180"/>
-      <c r="I38" s="180" t="s">
+      <c r="H38" s="140"/>
+      <c r="I38" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="J38" s="180"/>
-      <c r="K38" s="180"/>
-      <c r="L38" s="180"/>
-      <c r="M38" s="180"/>
-      <c r="N38" s="181"/>
+      <c r="J38" s="140"/>
+      <c r="K38" s="140"/>
+      <c r="L38" s="140"/>
+      <c r="M38" s="140"/>
+      <c r="N38" s="141"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="46" t="s">
@@ -3441,26 +3443,26 @@
       <c r="B39" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="182"/>
-      <c r="E39" s="183"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="143"/>
       <c r="F39" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="180" t="s">
+      <c r="G39" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="180"/>
-      <c r="I39" s="180" t="s">
+      <c r="H39" s="140"/>
+      <c r="I39" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="180"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="181"/>
+      <c r="J39" s="140"/>
+      <c r="K39" s="140"/>
+      <c r="L39" s="140"/>
+      <c r="M39" s="140"/>
+      <c r="N39" s="141"/>
     </row>
     <row r="40" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="50" t="s">
@@ -3469,11 +3471,11 @@
       <c r="B40" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="178" t="s">
+      <c r="C40" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="178"/>
-      <c r="E40" s="179"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="139"/>
       <c r="F40" s="52"/>
       <c r="G40" s="53"/>
       <c r="H40" s="54"/>
@@ -3502,6 +3504,41 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="B32:N32"/>
     <mergeCell ref="C40:E40"/>
@@ -3514,41 +3551,6 @@
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C39:E39"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <conditionalFormatting sqref="K16:N30">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
